--- a/Laboratarios/TP_Laboratorio_1/Documentos/BOM.xlsx
+++ b/Laboratarios/TP_Laboratorio_1/Documentos/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/talbanesi_frba_utn_edu_ar/Documents/UTN/05 - UTN Electrónica 2023/01 - Teoria de Circuitos II/GitHub/TC2_2023/Laboratarios/TP_Laboratorio_1/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B412F60C-36EF-4C54-AB48-0F5ABA97933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{B412F60C-36EF-4C54-AB48-0F5ABA97933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E578C822-7956-4F39-AAFB-00088E271FFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2BCE7356-4806-447F-9968-F3ACB0A1656E}"/>
+    <workbookView minimized="1" xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7785" xr2:uid="{2BCE7356-4806-447F-9968-F3ACB0A1656E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Item #</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -57,6 +54,72 @@
   </si>
   <si>
     <t>Tags</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>RF1</t>
+  </si>
+  <si>
+    <t>RF2</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>J1, J2, J3, J4, J5, J6, J7</t>
+  </si>
+  <si>
+    <t>Conector pin Header macho 2x1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>UAF42AP</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Amplificador universal integrado</t>
+  </si>
+  <si>
+    <t>Preset ajuste vertical de 2,2K</t>
+  </si>
+  <si>
+    <t>Resistencia de 56K</t>
+  </si>
+  <si>
+    <t>Resistencia de 820K</t>
+  </si>
+  <si>
+    <t>Resistencia de 36K</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Capacitor electrolitico de 10uF x 25V</t>
+  </si>
+  <si>
+    <t>Capacitor ceramico de 100nF</t>
+  </si>
+  <si>
+    <t>PDIP-14</t>
+  </si>
+  <si>
+    <t>Cant.</t>
   </si>
 </sst>
 </file>
@@ -92,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -103,6 +166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,13 +184,13 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -149,16 +215,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C25BF5F5-D610-4EEF-A694-EF39F7B7A9AF}" name="Tabla1" displayName="Tabla1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:G21" xr:uid="{C25BF5F5-D610-4EEF-A694-EF39F7B7A9AF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C25BF5F5-D610-4EEF-A694-EF39F7B7A9AF}" name="Tabla1" displayName="Tabla1" ref="A1:G10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G10" xr:uid="{C25BF5F5-D610-4EEF-A694-EF39F7B7A9AF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F15337C4-32E5-45F0-AF0B-AF4A540B7FFA}" name="Item #" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{50C616EA-AFEF-4EB3-8D28-B24D6608CF30}" name="Cantidad" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{06011043-D895-4B09-8712-79D8FC999E50}" name="Tags" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D01CD941-51C2-4B8F-B69C-B9A48B4D4BC0}" name="Descripcion" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{47C0A06D-2CB1-40A9-BDDB-E254A4C3570C}" name="Fabricante" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{4DF1E959-752C-40A5-B595-814FA3B9F475}" name="Part Number" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6C12FDFA-D68C-43F6-8A43-8F312F3821E2}" name="Package" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{F15337C4-32E5-45F0-AF0B-AF4A540B7FFA}" name="Item #" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{50C616EA-AFEF-4EB3-8D28-B24D6608CF30}" name="Cant." dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{06011043-D895-4B09-8712-79D8FC999E50}" name="Tags" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D01CD941-51C2-4B8F-B69C-B9A48B4D4BC0}" name="Descripcion" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{47C0A06D-2CB1-40A9-BDDB-E254A4C3570C}" name="Fabricante" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4DF1E959-752C-40A5-B595-814FA3B9F475}" name="Part Number" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6C12FDFA-D68C-43F6-8A43-8F312F3821E2}" name="Package" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,21 +527,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461E305B-CE1E-41B6-94B9-3C71774383FD}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G10" sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -483,243 +549,230 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
